--- a/pc/public/excel_template/eams/archive.xlsx
+++ b/pc/public/excel_template/eams/archive.xlsx
@@ -45,13 +45,13 @@
     <t xml:space="preserve">&lt;% var prop = "rem"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;% var prop = "create_usr_id_lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;&lt;%selectList.create_usr_id = data.findAllUsr?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.create_usr_id &amp;&amp; selectList.create_usr_id.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.create_usr_id.join(",") }"` })%&gt;</t>
+    <t xml:space="preserve">&lt;% var prop = "create_usr_id_lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;% var prop = "create_time_lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;% var prop = "update_usr_id_lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;&lt;%selectList.update_usr_id = data.findAllUsr?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.update_usr_id &amp;&amp; selectList.update_usr_id.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.update_usr_id.join(",") }"` })%&gt;</t>
+    <t xml:space="preserve">&lt;% var prop = "update_usr_id_lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;% var prop = "update_time_lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;</t>
